--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\System Analyst\K-Anode Received Assistant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\System Analyst\K-Anode Received Assistant\K-Anode-Received-Assistant-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93243A38-ABFD-4FB0-A239-803F5AD6FF9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21712841-DF94-404F-82AB-16908C0F6722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D18485EE-5563-4871-AFD0-C55C6B5346D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D18485EE-5563-4871-AFD0-C55C6B5346D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Receive</t>
+  </si>
+  <si>
+    <t>Comfirm</t>
+  </si>
+  <si>
+    <t>Record Data</t>
+  </si>
+  <si>
+    <t>View Transaction</t>
+  </si>
+  <si>
+    <t>Export Data</t>
+  </si>
+  <si>
+    <t>Import Balance from WMS</t>
+  </si>
+  <si>
+    <t>Usecase</t>
   </si>
 </sst>
 </file>
@@ -80,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,11 +106,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -100,9 +133,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,77 +460,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D9B247-06DC-48C9-BAB3-CA4CEBA590ED}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\System Analyst\K-Anode Received Assistant\K-Anode-Received-Assistant-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\System Analyst\K-Anode Received Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21712841-DF94-404F-82AB-16908C0F6722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B06DB-0CC2-4ADB-B036-38D084DE914E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D18485EE-5563-4871-AFD0-C55C6B5346D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -48,12 +48,6 @@
     <t>นำข้อมูลออกเป็น Excel</t>
   </si>
   <si>
-    <t>Receive</t>
-  </si>
-  <si>
-    <t>Comfirm</t>
-  </si>
-  <si>
     <t>Record Data</t>
   </si>
   <si>
@@ -67,6 +61,15 @@
   </si>
   <si>
     <t>Usecase</t>
+  </si>
+  <si>
+    <t>Receive K-Anode</t>
+  </si>
+  <si>
+    <t>Verify Received</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,18 +137,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,18 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D9B247-06DC-48C9-BAB3-CA4CEBA590ED}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
@@ -479,112 +491,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -593,6 +617,6 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>